--- a/xlsx/a69_f42_aUPPachuca.xlsx
+++ b/xlsx/a69_f42_aUPPachuca.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EVALUACION\EVALUACIÓN\2023\UPP-17-2023-12C\SIPOT\3ER TRIMESTRE\vobo.1 (121023)\cargar a SIPOT 121023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guada\Desktop\4to trimestre\integracion\UPP 4TO TRI SIPOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4968E16D-4E30-4187-8D3D-2AA80DFD3578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -123,13 +124,16 @@
     <t>http://www.issste.gob.mx/transparencia/transparenciaobligaciones.html</t>
   </si>
   <si>
-    <t>Departamento de Recursos Humanos (UPP)</t>
+    <t>Subdirección de Recursos Humanos (UPP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,11 +147,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -158,7 +164,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,11 +174,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF333333"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFE1E1E1"/>
       </patternFill>
     </fill>
     <fill>
@@ -207,31 +208,40 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -267,7 +277,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -279,7 +289,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -326,6 +336,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -361,6 +388,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,11 +556,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +568,7 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.28515625" customWidth="1"/>
+    <col min="4" max="4" width="61" customWidth="1"/>
     <col min="5" max="5" width="70.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -537,166 +581,166 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:9" s="10" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2023</v>
       </c>
-      <c r="B8" s="6">
-        <v>45108</v>
-      </c>
-      <c r="C8" s="6">
-        <v>45199</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="4">
+        <v>45200</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45291</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="6">
-        <v>45209</v>
-      </c>
-      <c r="H8" s="6">
-        <v>45209</v>
-      </c>
-      <c r="I8" s="9"/>
+      <c r="G8" s="4">
+        <v>45301</v>
+      </c>
+      <c r="H8" s="4">
+        <v>45301</v>
+      </c>
+      <c r="I8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -709,7 +753,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1"/>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
